--- a/pred_ohlcv/54/2019-10-06 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-06 ITC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,25 +413,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="n">
-        <v>8060</v>
+        <v>32.9782</v>
       </c>
       <c r="G2" t="n">
-        <v>146.55</v>
+        <v>146.4833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" t="n">
-        <v>154.144</v>
+        <v>8060</v>
       </c>
       <c r="G3" t="n">
-        <v>146.5833333333333</v>
+        <v>146.55</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,13 +483,16 @@
         <v>147</v>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>154.144</v>
       </c>
       <c r="G4" t="n">
-        <v>146.6166666666667</v>
+        <v>146.5833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" t="n">
-        <v>159.5652</v>
+        <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>146.6666666666667</v>
+        <v>146.6166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>148</v>
       </c>
       <c r="F6" t="n">
-        <v>179.3102</v>
+        <v>159.5652</v>
       </c>
       <c r="G6" t="n">
-        <v>146.7166666666667</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" t="n">
-        <v>4344.2616</v>
+        <v>179.3102</v>
       </c>
       <c r="G7" t="n">
-        <v>146.7833333333333</v>
+        <v>146.7166666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>149</v>
       </c>
       <c r="F8" t="n">
-        <v>6781.0671</v>
+        <v>4344.2616</v>
       </c>
       <c r="G8" t="n">
-        <v>146.85</v>
+        <v>146.7833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>149</v>
       </c>
       <c r="F9" t="n">
-        <v>5862.7516</v>
+        <v>6781.0671</v>
       </c>
       <c r="G9" t="n">
-        <v>146.9166666666667</v>
+        <v>146.85</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>149</v>
       </c>
       <c r="F10" t="n">
-        <v>768</v>
+        <v>5862.7516</v>
       </c>
       <c r="G10" t="n">
-        <v>146.9833333333333</v>
+        <v>146.9166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,21 +677,24 @@
         <v>149</v>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" t="n">
-        <v>61337.5666</v>
+        <v>768</v>
       </c>
       <c r="G11" t="n">
-        <v>147.0666666666667</v>
+        <v>146.9833333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
         <v>150</v>
@@ -677,15 +712,18 @@
         <v>150</v>
       </c>
       <c r="E12" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" t="n">
-        <v>1989.2024</v>
+        <v>61337.5666</v>
       </c>
       <c r="G12" t="n">
-        <v>147.15</v>
+        <v>147.0666666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D13" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E13" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" t="n">
-        <v>118704.751256962</v>
+        <v>1989.2024</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3666666666667</v>
+        <v>147.15</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E14" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F14" t="n">
-        <v>165485.1473</v>
+        <v>118704.751256962</v>
       </c>
       <c r="G14" t="n">
-        <v>147.55</v>
+        <v>147.3666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>158</v>
+      </c>
+      <c r="C15" t="n">
         <v>156</v>
       </c>
-      <c r="C15" t="n">
-        <v>160</v>
-      </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F15" t="n">
-        <v>4413.52579</v>
+        <v>165485.1473</v>
       </c>
       <c r="G15" t="n">
-        <v>147.8</v>
+        <v>147.55</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C16" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
         <v>160</v>
       </c>
       <c r="E16" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" t="n">
-        <v>12894.09035</v>
+        <v>4413.52579</v>
       </c>
       <c r="G16" t="n">
-        <v>148</v>
+        <v>147.8</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,25 +848,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" t="n">
         <v>160</v>
       </c>
       <c r="E17" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" t="n">
-        <v>36486.1084</v>
+        <v>12894.09035</v>
       </c>
       <c r="G17" t="n">
-        <v>148.2333333333333</v>
+        <v>148</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" t="n">
         <v>159</v>
@@ -833,15 +886,18 @@
         <v>160</v>
       </c>
       <c r="E18" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F18" t="n">
-        <v>22512.21616</v>
+        <v>36486.1084</v>
       </c>
       <c r="G18" t="n">
-        <v>148.45</v>
+        <v>148.2333333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>159</v>
       </c>
       <c r="C19" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D19" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F19" t="n">
-        <v>73739.35563999999</v>
+        <v>22512.21616</v>
       </c>
       <c r="G19" t="n">
-        <v>148.6666666666667</v>
+        <v>148.45</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>159</v>
       </c>
       <c r="C20" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D20" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E20" t="n">
         <v>158</v>
       </c>
       <c r="F20" t="n">
-        <v>111660.8427</v>
+        <v>73739.35563999999</v>
       </c>
       <c r="G20" t="n">
-        <v>148.9666666666667</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D21" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F21" t="n">
-        <v>58335.2976</v>
+        <v>111660.8427</v>
       </c>
       <c r="G21" t="n">
-        <v>149.25</v>
+        <v>148.9666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E22" t="n">
         <v>162</v>
       </c>
       <c r="F22" t="n">
-        <v>16316.6798</v>
+        <v>58335.2976</v>
       </c>
       <c r="G22" t="n">
-        <v>149.5333333333333</v>
+        <v>149.25</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>163</v>
       </c>
       <c r="C23" t="n">
+        <v>163</v>
+      </c>
+      <c r="D23" t="n">
+        <v>164</v>
+      </c>
+      <c r="E23" t="n">
         <v>162</v>
       </c>
-      <c r="D23" t="n">
-        <v>163</v>
-      </c>
-      <c r="E23" t="n">
-        <v>161</v>
-      </c>
       <c r="F23" t="n">
-        <v>58609.2632</v>
+        <v>16316.6798</v>
       </c>
       <c r="G23" t="n">
-        <v>149.8166666666667</v>
+        <v>149.5333333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>163</v>
       </c>
       <c r="C24" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D24" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E24" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" t="n">
-        <v>73847.40201616297</v>
+        <v>58609.2632</v>
       </c>
       <c r="G24" t="n">
-        <v>150.15</v>
+        <v>149.8166666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C25" t="n">
         <v>166</v>
       </c>
       <c r="D25" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F25" t="n">
-        <v>64570.7158</v>
+        <v>73847.40201616297</v>
       </c>
       <c r="G25" t="n">
-        <v>150.4833333333333</v>
+        <v>150.15</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" t="n">
         <v>166</v>
       </c>
       <c r="D26" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E26" t="n">
         <v>166</v>
       </c>
       <c r="F26" t="n">
-        <v>40715.9715</v>
+        <v>64570.7158</v>
       </c>
       <c r="G26" t="n">
-        <v>150.8166666666667</v>
+        <v>150.4833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>166</v>
       </c>
       <c r="C27" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D27" t="n">
+        <v>168</v>
+      </c>
+      <c r="E27" t="n">
         <v>166</v>
       </c>
-      <c r="E27" t="n">
-        <v>163</v>
-      </c>
       <c r="F27" t="n">
-        <v>12697.7638</v>
+        <v>40715.9715</v>
       </c>
       <c r="G27" t="n">
-        <v>151.1166666666667</v>
+        <v>150.8166666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" t="n">
         <v>164</v>
@@ -1096,12 +1179,15 @@
         <v>163</v>
       </c>
       <c r="F28" t="n">
-        <v>96647.4344</v>
+        <v>12697.7638</v>
       </c>
       <c r="G28" t="n">
-        <v>151.4</v>
+        <v>151.1166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,10 +1196,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>165</v>
+      </c>
+      <c r="C29" t="n">
         <v>164</v>
-      </c>
-      <c r="C29" t="n">
-        <v>166</v>
       </c>
       <c r="D29" t="n">
         <v>166</v>
@@ -1122,12 +1208,15 @@
         <v>163</v>
       </c>
       <c r="F29" t="n">
-        <v>28080.0765</v>
+        <v>96647.4344</v>
       </c>
       <c r="G29" t="n">
-        <v>151.7166666666667</v>
+        <v>151.4</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>164</v>
       </c>
       <c r="C30" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D30" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E30" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" t="n">
-        <v>3124.7447</v>
+        <v>28080.0765</v>
       </c>
       <c r="G30" t="n">
-        <v>152.0166666666667</v>
+        <v>151.7166666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31" t="n">
-        <v>69465.1658</v>
+        <v>3124.7447</v>
       </c>
       <c r="G31" t="n">
-        <v>152.3333333333333</v>
+        <v>152.0166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1286,7 @@
         <v>165</v>
       </c>
       <c r="C32" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D32" t="n">
         <v>165</v>
@@ -1200,12 +1295,15 @@
         <v>163</v>
       </c>
       <c r="F32" t="n">
-        <v>27716.3467</v>
+        <v>69465.1658</v>
       </c>
       <c r="G32" t="n">
-        <v>152.6166666666667</v>
+        <v>152.3333333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" t="n">
         <v>165</v>
       </c>
       <c r="E33" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" t="n">
-        <v>8007.5858</v>
+        <v>27716.3467</v>
       </c>
       <c r="G33" t="n">
-        <v>152.9166666666667</v>
+        <v>152.6166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>164</v>
       </c>
       <c r="C34" t="n">
+        <v>164</v>
+      </c>
+      <c r="D34" t="n">
         <v>165</v>
       </c>
-      <c r="D34" t="n">
-        <v>166</v>
-      </c>
       <c r="E34" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F34" t="n">
-        <v>38438.0612</v>
+        <v>8007.5858</v>
       </c>
       <c r="G34" t="n">
-        <v>153.2166666666667</v>
+        <v>152.9166666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C35" t="n">
         <v>165</v>
@@ -1275,15 +1379,18 @@
         <v>166</v>
       </c>
       <c r="E35" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" t="n">
-        <v>43605.5648</v>
+        <v>38438.0612</v>
       </c>
       <c r="G35" t="n">
-        <v>153.5166666666667</v>
+        <v>153.2166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" t="n">
         <v>165</v>
       </c>
       <c r="D36" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" t="n">
         <v>164</v>
       </c>
       <c r="F36" t="n">
-        <v>41872.3737</v>
+        <v>43605.5648</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8166666666667</v>
+        <v>153.5166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>165</v>
       </c>
       <c r="C37" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D37" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F37" t="n">
-        <v>11682.7891</v>
+        <v>41872.3737</v>
       </c>
       <c r="G37" t="n">
-        <v>154.1</v>
+        <v>153.8166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>165</v>
       </c>
       <c r="C38" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" t="n">
         <v>166</v>
       </c>
       <c r="E38" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" t="n">
-        <v>17603.2697060241</v>
+        <v>11682.7891</v>
       </c>
       <c r="G38" t="n">
-        <v>154.4</v>
+        <v>154.1</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>165</v>
+      </c>
+      <c r="C39" t="n">
         <v>164</v>
       </c>
-      <c r="C39" t="n">
-        <v>163</v>
-      </c>
       <c r="D39" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E39" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" t="n">
-        <v>31745.5434</v>
+        <v>17603.2697060241</v>
       </c>
       <c r="G39" t="n">
-        <v>154.65</v>
+        <v>154.4</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>164</v>
       </c>
       <c r="C40" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F40" t="n">
-        <v>9369.7084</v>
+        <v>31745.5434</v>
       </c>
       <c r="G40" t="n">
-        <v>154.8666666666667</v>
+        <v>154.65</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>164</v>
+      </c>
+      <c r="C41" t="n">
+        <v>162</v>
+      </c>
+      <c r="D41" t="n">
+        <v>164</v>
+      </c>
+      <c r="E41" t="n">
         <v>161</v>
       </c>
-      <c r="C41" t="n">
-        <v>160</v>
-      </c>
-      <c r="D41" t="n">
-        <v>161</v>
-      </c>
-      <c r="E41" t="n">
-        <v>160</v>
-      </c>
       <c r="F41" t="n">
-        <v>19917.2393</v>
+        <v>9369.7084</v>
       </c>
       <c r="G41" t="n">
-        <v>155.0666666666667</v>
+        <v>154.8666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>161</v>
       </c>
       <c r="C42" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D42" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F42" t="n">
-        <v>3584.4223</v>
+        <v>19917.2393</v>
       </c>
       <c r="G42" t="n">
-        <v>155.3</v>
+        <v>155.0666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" t="n">
         <v>162</v>
@@ -1483,15 +1611,18 @@
         <v>162</v>
       </c>
       <c r="E43" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F43" t="n">
-        <v>2263.4927</v>
+        <v>3584.4223</v>
       </c>
       <c r="G43" t="n">
-        <v>155.5333333333333</v>
+        <v>155.3</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1506,18 +1637,21 @@
         <v>162</v>
       </c>
       <c r="D44" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" t="n">
         <v>162</v>
       </c>
       <c r="F44" t="n">
-        <v>802.0918</v>
+        <v>2263.4927</v>
       </c>
       <c r="G44" t="n">
-        <v>155.7666666666667</v>
+        <v>155.5333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,10 +1660,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" t="n">
         <v>163</v>
@@ -1538,12 +1672,15 @@
         <v>162</v>
       </c>
       <c r="F45" t="n">
-        <v>8250.873100000001</v>
+        <v>802.0918</v>
       </c>
       <c r="G45" t="n">
-        <v>156.0166666666667</v>
+        <v>155.7666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>162</v>
       </c>
       <c r="F46" t="n">
-        <v>1384.0071</v>
+        <v>8250.873100000001</v>
       </c>
       <c r="G46" t="n">
-        <v>156.2666666666667</v>
+        <v>156.0166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1584,18 +1724,21 @@
         <v>163</v>
       </c>
       <c r="D47" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F47" t="n">
-        <v>815.6361000000001</v>
+        <v>1384.0071</v>
       </c>
       <c r="G47" t="n">
-        <v>156.5166666666667</v>
+        <v>156.2666666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1747,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" t="n">
         <v>163</v>
@@ -1613,15 +1756,18 @@
         <v>164</v>
       </c>
       <c r="E48" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F48" t="n">
-        <v>12953.8134</v>
+        <v>815.6361000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>156.7666666666667</v>
+        <v>156.5166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>164</v>
+      </c>
+      <c r="C49" t="n">
         <v>163</v>
       </c>
-      <c r="C49" t="n">
-        <v>165</v>
-      </c>
       <c r="D49" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" t="n">
-        <v>1459.255658181818</v>
+        <v>12953.8134</v>
       </c>
       <c r="G49" t="n">
-        <v>157.05</v>
+        <v>156.7666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,10 +1805,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D50" t="n">
         <v>165</v>
@@ -1668,12 +1817,15 @@
         <v>163</v>
       </c>
       <c r="F50" t="n">
-        <v>4817.6931</v>
+        <v>1459.255658181818</v>
       </c>
       <c r="G50" t="n">
-        <v>157.3</v>
+        <v>157.05</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" t="n">
         <v>163</v>
       </c>
       <c r="D51" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E51" t="n">
         <v>163</v>
       </c>
       <c r="F51" t="n">
-        <v>3969.5966</v>
+        <v>4817.6931</v>
       </c>
       <c r="G51" t="n">
-        <v>157.55</v>
+        <v>157.3</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F52" t="n">
-        <v>6784.8785</v>
+        <v>3969.5966</v>
       </c>
       <c r="G52" t="n">
-        <v>157.7833333333333</v>
+        <v>157.55</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F53" t="n">
-        <v>671.4115</v>
+        <v>6784.8785</v>
       </c>
       <c r="G53" t="n">
-        <v>158</v>
+        <v>157.7833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>161</v>
       </c>
       <c r="C54" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F54" t="n">
-        <v>64361.5466</v>
+        <v>671.4115</v>
       </c>
       <c r="G54" t="n">
-        <v>158.2666666666667</v>
+        <v>158</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F55" t="n">
-        <v>33683.3406</v>
+        <v>64361.5466</v>
       </c>
       <c r="G55" t="n">
-        <v>158.4833333333333</v>
+        <v>158.2666666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,10 +1979,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>162</v>
+      </c>
+      <c r="C56" t="n">
         <v>161</v>
-      </c>
-      <c r="C56" t="n">
-        <v>162</v>
       </c>
       <c r="D56" t="n">
         <v>162</v>
@@ -1824,12 +1991,15 @@
         <v>161</v>
       </c>
       <c r="F56" t="n">
-        <v>506.7407</v>
+        <v>33683.3406</v>
       </c>
       <c r="G56" t="n">
-        <v>158.7333333333333</v>
+        <v>158.4833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>161</v>
       </c>
       <c r="F57" t="n">
-        <v>971.259</v>
+        <v>506.7407</v>
       </c>
       <c r="G57" t="n">
-        <v>158.9833333333333</v>
+        <v>158.7333333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C58" t="n">
+        <v>162</v>
+      </c>
+      <c r="D58" t="n">
+        <v>162</v>
+      </c>
+      <c r="E58" t="n">
         <v>161</v>
       </c>
-      <c r="D58" t="n">
-        <v>161</v>
-      </c>
-      <c r="E58" t="n">
-        <v>160</v>
-      </c>
       <c r="F58" t="n">
-        <v>374.1508</v>
+        <v>971.259</v>
       </c>
       <c r="G58" t="n">
-        <v>159.2</v>
+        <v>158.9833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C59" t="n">
         <v>161</v>
@@ -1899,15 +2075,18 @@
         <v>161</v>
       </c>
       <c r="E59" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F59" t="n">
-        <v>14.8643</v>
+        <v>374.1508</v>
       </c>
       <c r="G59" t="n">
-        <v>159.4166666666667</v>
+        <v>159.2</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>161</v>
       </c>
       <c r="C60" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D60" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E60" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F60" t="n">
-        <v>65428.9289</v>
+        <v>14.8643</v>
       </c>
       <c r="G60" t="n">
-        <v>159.6666666666667</v>
+        <v>159.4166666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,10 +2124,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D61" t="n">
         <v>163</v>
@@ -1954,12 +2136,15 @@
         <v>160</v>
       </c>
       <c r="F61" t="n">
-        <v>4054.6144</v>
+        <v>65428.9289</v>
       </c>
       <c r="G61" t="n">
-        <v>159.9166666666667</v>
+        <v>159.6666666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" t="n">
         <v>163</v>
       </c>
       <c r="E62" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F62" t="n">
-        <v>308.756</v>
+        <v>4054.6144</v>
       </c>
       <c r="G62" t="n">
-        <v>160.15</v>
+        <v>159.9166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D63" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E63" t="n">
         <v>162</v>
       </c>
       <c r="F63" t="n">
-        <v>1682.9425</v>
+        <v>308.756</v>
       </c>
       <c r="G63" t="n">
-        <v>160.4</v>
+        <v>160.15</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>162</v>
       </c>
       <c r="F64" t="n">
-        <v>125</v>
+        <v>1682.9425</v>
       </c>
       <c r="G64" t="n">
-        <v>160.65</v>
+        <v>160.4</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2052,18 +2246,21 @@
         <v>162</v>
       </c>
       <c r="D65" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E65" t="n">
         <v>162</v>
       </c>
       <c r="F65" t="n">
-        <v>4176.5408</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
-        <v>160.8833333333333</v>
+        <v>160.65</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2078,18 +2275,21 @@
         <v>162</v>
       </c>
       <c r="D66" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E66" t="n">
         <v>162</v>
       </c>
       <c r="F66" t="n">
-        <v>11585.8263</v>
+        <v>4176.5408</v>
       </c>
       <c r="G66" t="n">
-        <v>161.1166666666667</v>
+        <v>160.8833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D67" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E67" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F67" t="n">
-        <v>9658.895317682927</v>
+        <v>11585.8263</v>
       </c>
       <c r="G67" t="n">
-        <v>161.3166666666667</v>
+        <v>161.1166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>163</v>
       </c>
       <c r="C68" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F68" t="n">
-        <v>12.85276073619632</v>
+        <v>9658.895317682927</v>
       </c>
       <c r="G68" t="n">
-        <v>161.55</v>
+        <v>161.3166666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D69" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E69" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F69" t="n">
-        <v>53984.6143</v>
+        <v>12.85276073619632</v>
       </c>
       <c r="G69" t="n">
-        <v>161.7666666666667</v>
+        <v>161.55</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2185,15 +2394,18 @@
         <v>162</v>
       </c>
       <c r="E70" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F70" t="n">
-        <v>2492.2074</v>
+        <v>53984.6143</v>
       </c>
       <c r="G70" t="n">
-        <v>161.9833333333333</v>
+        <v>161.7666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2208,18 +2420,21 @@
         <v>162</v>
       </c>
       <c r="D71" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E71" t="n">
         <v>162</v>
       </c>
       <c r="F71" t="n">
-        <v>8405.013000000001</v>
+        <v>2492.2074</v>
       </c>
       <c r="G71" t="n">
-        <v>162.1833333333333</v>
+        <v>161.9833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C72" t="n">
         <v>162</v>
       </c>
       <c r="D72" t="n">
+        <v>163</v>
+      </c>
+      <c r="E72" t="n">
         <v>162</v>
       </c>
-      <c r="E72" t="n">
-        <v>161</v>
-      </c>
       <c r="F72" t="n">
-        <v>6105.7745</v>
+        <v>8405.013000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>162.3833333333333</v>
+        <v>162.1833333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>161</v>
       </c>
       <c r="C73" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D73" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73" t="n">
         <v>161</v>
       </c>
       <c r="F73" t="n">
-        <v>1651.4457</v>
+        <v>6105.7745</v>
       </c>
       <c r="G73" t="n">
-        <v>162.4333333333333</v>
+        <v>162.3833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F74" t="n">
-        <v>236.638</v>
+        <v>1651.4457</v>
       </c>
       <c r="G74" t="n">
-        <v>162.55</v>
+        <v>162.4333333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>163</v>
       </c>
       <c r="F75" t="n">
-        <v>125</v>
+        <v>236.638</v>
       </c>
       <c r="G75" t="n">
-        <v>162.6</v>
+        <v>162.55</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>163</v>
       </c>
       <c r="F76" t="n">
-        <v>16.5214</v>
+        <v>125</v>
       </c>
       <c r="G76" t="n">
-        <v>162.7</v>
+        <v>162.6</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C77" t="n">
         <v>163</v>
@@ -2367,15 +2597,18 @@
         <v>163</v>
       </c>
       <c r="E77" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F77" t="n">
-        <v>17682.4269</v>
+        <v>16.5214</v>
       </c>
       <c r="G77" t="n">
-        <v>162.7666666666667</v>
+        <v>162.7</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>161</v>
       </c>
       <c r="F78" t="n">
-        <v>8219.4763</v>
+        <v>17682.4269</v>
       </c>
       <c r="G78" t="n">
-        <v>162.8333333333333</v>
+        <v>162.7666666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D79" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E79" t="n">
         <v>161</v>
       </c>
       <c r="F79" t="n">
-        <v>84.10769999999999</v>
+        <v>8219.4763</v>
       </c>
       <c r="G79" t="n">
-        <v>162.8833333333333</v>
+        <v>162.8333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E80" t="n">
         <v>161</v>
       </c>
       <c r="F80" t="n">
-        <v>14646.4567</v>
+        <v>84.10769999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>162.85</v>
+        <v>162.8833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C81" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D81" t="n">
         <v>162</v>
       </c>
       <c r="E81" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F81" t="n">
-        <v>9987.75</v>
+        <v>14646.4567</v>
       </c>
       <c r="G81" t="n">
-        <v>162.8333333333333</v>
+        <v>162.85</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C82" t="n">
         <v>161</v>
       </c>
       <c r="D82" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E82" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F82" t="n">
-        <v>1150.3602</v>
+        <v>9987.75</v>
       </c>
       <c r="G82" t="n">
-        <v>162.8</v>
+        <v>162.8333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>161</v>
       </c>
       <c r="C83" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D83" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E83" t="n">
         <v>161</v>
       </c>
       <c r="F83" t="n">
-        <v>275</v>
+        <v>1150.3602</v>
       </c>
       <c r="G83" t="n">
         <v>162.8</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="n">
         <v>162</v>
       </c>
       <c r="D84" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E84" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F84" t="n">
-        <v>9942.953299999999</v>
+        <v>275</v>
       </c>
       <c r="G84" t="n">
-        <v>162.7333333333333</v>
+        <v>162.8</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" t="n">
         <v>162</v>
@@ -2578,12 +2832,15 @@
         <v>162</v>
       </c>
       <c r="F85" t="n">
-        <v>3802.6044</v>
+        <v>9942.953299999999</v>
       </c>
       <c r="G85" t="n">
-        <v>162.6666666666667</v>
+        <v>162.7333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C86" t="n">
         <v>162</v>
       </c>
       <c r="D86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E86" t="n">
         <v>162</v>
       </c>
       <c r="F86" t="n">
-        <v>139.8388</v>
+        <v>3802.6044</v>
       </c>
       <c r="G86" t="n">
-        <v>162.6</v>
+        <v>162.6666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,18 +2884,21 @@
         <v>162</v>
       </c>
       <c r="D87" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E87" t="n">
         <v>162</v>
       </c>
       <c r="F87" t="n">
-        <v>4173.1189</v>
+        <v>139.8388</v>
       </c>
       <c r="G87" t="n">
-        <v>162.5666666666667</v>
+        <v>162.6</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2650,18 +2913,21 @@
         <v>162</v>
       </c>
       <c r="D88" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E88" t="n">
         <v>162</v>
       </c>
       <c r="F88" t="n">
-        <v>4288.6694</v>
+        <v>4173.1189</v>
       </c>
       <c r="G88" t="n">
-        <v>162.5333333333333</v>
+        <v>162.5666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>162</v>
       </c>
       <c r="C89" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D89" t="n">
         <v>162</v>
       </c>
       <c r="E89" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F89" t="n">
-        <v>6400</v>
+        <v>4288.6694</v>
       </c>
       <c r="G89" t="n">
-        <v>162.45</v>
+        <v>162.5333333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>162</v>
+      </c>
+      <c r="C90" t="n">
         <v>161</v>
       </c>
-      <c r="C90" t="n">
-        <v>160</v>
-      </c>
       <c r="D90" t="n">
+        <v>162</v>
+      </c>
+      <c r="E90" t="n">
         <v>161</v>
       </c>
-      <c r="E90" t="n">
-        <v>160</v>
-      </c>
       <c r="F90" t="n">
-        <v>4529.1033</v>
+        <v>6400</v>
       </c>
       <c r="G90" t="n">
-        <v>162.3833333333333</v>
+        <v>162.45</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,21 +2997,24 @@
         <v>161</v>
       </c>
       <c r="C91" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" t="n">
         <v>161</v>
       </c>
       <c r="E91" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F91" t="n">
-        <v>19486.4271</v>
+        <v>4529.1033</v>
       </c>
       <c r="G91" t="n">
-        <v>162.3166666666667</v>
+        <v>162.3833333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>19486.4271</v>
       </c>
       <c r="G92" t="n">
-        <v>162.25</v>
+        <v>162.3166666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D93" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E93" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F93" t="n">
-        <v>14685.0765</v>
+        <v>50</v>
       </c>
       <c r="G93" t="n">
-        <v>162.15</v>
+        <v>162.25</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,10 +3081,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C94" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D94" t="n">
         <v>160</v>
@@ -2812,12 +3093,15 @@
         <v>158</v>
       </c>
       <c r="F94" t="n">
-        <v>10271.7332</v>
+        <v>14685.0765</v>
       </c>
       <c r="G94" t="n">
-        <v>162.05</v>
+        <v>162.15</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" t="n">
         <v>159</v>
       </c>
       <c r="D95" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E95" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F95" t="n">
-        <v>2910.6286</v>
+        <v>10271.7332</v>
       </c>
       <c r="G95" t="n">
-        <v>161.95</v>
+        <v>162.05</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>159</v>
       </c>
       <c r="C96" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E96" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F96" t="n">
-        <v>60542.5104</v>
+        <v>2910.6286</v>
       </c>
       <c r="G96" t="n">
-        <v>161.8333333333333</v>
+        <v>161.95</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" t="n">
         <v>158</v>
       </c>
       <c r="D97" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E97" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F97" t="n">
-        <v>12515.7217</v>
+        <v>60542.5104</v>
       </c>
       <c r="G97" t="n">
-        <v>161.75</v>
+        <v>161.8333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>158</v>
+      </c>
+      <c r="C98" t="n">
+        <v>158</v>
+      </c>
+      <c r="D98" t="n">
         <v>159</v>
       </c>
-      <c r="C98" t="n">
-        <v>157</v>
-      </c>
-      <c r="D98" t="n">
-        <v>160</v>
-      </c>
       <c r="E98" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F98" t="n">
-        <v>11672.5516</v>
+        <v>12515.7217</v>
       </c>
       <c r="G98" t="n">
-        <v>161.6333333333333</v>
+        <v>161.75</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C99" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D99" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E99" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F99" t="n">
-        <v>12712.3602</v>
+        <v>11672.5516</v>
       </c>
       <c r="G99" t="n">
-        <v>161.55</v>
+        <v>161.6333333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>158</v>
       </c>
       <c r="C100" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D100" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E100" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F100" t="n">
-        <v>8092.7153</v>
+        <v>12712.3602</v>
       </c>
       <c r="G100" t="n">
-        <v>161.4666666666667</v>
+        <v>161.55</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>158</v>
       </c>
       <c r="C101" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D101" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F101" t="n">
-        <v>9081.7611</v>
+        <v>8092.7153</v>
       </c>
       <c r="G101" t="n">
         <v>161.4666666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D102" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E102" t="n">
         <v>158</v>
       </c>
       <c r="F102" t="n">
-        <v>572.5522</v>
+        <v>9081.7611</v>
       </c>
       <c r="G102" t="n">
-        <v>161.4</v>
+        <v>161.4666666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,21 +3345,24 @@
         <v>159</v>
       </c>
       <c r="C103" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" t="n">
         <v>159</v>
       </c>
       <c r="E103" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F103" t="n">
-        <v>38.5597</v>
+        <v>572.5522</v>
       </c>
       <c r="G103" t="n">
-        <v>161.35</v>
+        <v>161.4</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C104" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E104" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F104" t="n">
-        <v>43554.83</v>
+        <v>38.5597</v>
       </c>
       <c r="G104" t="n">
-        <v>161.3166666666667</v>
+        <v>161.35</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>158</v>
       </c>
       <c r="C105" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D105" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E105" t="n">
         <v>157</v>
       </c>
       <c r="F105" t="n">
-        <v>1308.7715</v>
+        <v>43554.83</v>
       </c>
       <c r="G105" t="n">
-        <v>161.2333333333333</v>
+        <v>161.3166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,7 +3432,7 @@
         <v>158</v>
       </c>
       <c r="C106" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D106" t="n">
         <v>158</v>
@@ -3124,12 +3441,15 @@
         <v>157</v>
       </c>
       <c r="F106" t="n">
-        <v>4340.0607</v>
+        <v>1308.7715</v>
       </c>
       <c r="G106" t="n">
-        <v>161.1333333333333</v>
+        <v>161.2333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>158</v>
       </c>
       <c r="C107" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D107" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F107" t="n">
-        <v>2729</v>
+        <v>4340.0607</v>
       </c>
       <c r="G107" t="n">
-        <v>161.0666666666667</v>
+        <v>161.1333333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" t="n">
         <v>159</v>
@@ -3176,12 +3499,15 @@
         <v>158</v>
       </c>
       <c r="F108" t="n">
-        <v>437.7547</v>
+        <v>2729</v>
       </c>
       <c r="G108" t="n">
-        <v>161</v>
+        <v>161.0666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C109" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D109" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E109" t="n">
         <v>158</v>
       </c>
       <c r="F109" t="n">
-        <v>335.7057</v>
+        <v>437.7547</v>
       </c>
       <c r="G109" t="n">
-        <v>160.8833333333333</v>
+        <v>161</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F110" t="n">
-        <v>500</v>
+        <v>335.7057</v>
       </c>
       <c r="G110" t="n">
-        <v>160.8166666666667</v>
+        <v>160.8833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3251,15 +3583,18 @@
         <v>159</v>
       </c>
       <c r="E111" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F111" t="n">
-        <v>14794.9394</v>
+        <v>500</v>
       </c>
       <c r="G111" t="n">
-        <v>160.75</v>
+        <v>160.8166666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D112" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F112" t="n">
-        <v>1969.8</v>
+        <v>14794.9394</v>
       </c>
       <c r="G112" t="n">
-        <v>160.7166666666667</v>
+        <v>160.75</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F113" t="n">
-        <v>143.3603</v>
+        <v>1969.8</v>
       </c>
       <c r="G113" t="n">
-        <v>160.6666666666667</v>
+        <v>160.7166666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>143.3603</v>
       </c>
       <c r="G114" t="n">
-        <v>160.6166666666667</v>
+        <v>160.6666666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F115" t="n">
-        <v>161.2654</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>160.5666666666667</v>
+        <v>160.6166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E116" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116" t="n">
-        <v>1829.35</v>
+        <v>161.2654</v>
       </c>
       <c r="G116" t="n">
-        <v>160.5333333333333</v>
+        <v>160.5666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117" t="n">
         <v>160</v>
       </c>
       <c r="D117" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E117" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F117" t="n">
-        <v>13724.3137</v>
+        <v>1829.35</v>
       </c>
       <c r="G117" t="n">
-        <v>160.5</v>
+        <v>160.5333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3777,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C118" t="n">
         <v>160</v>
@@ -3436,12 +3789,15 @@
         <v>160</v>
       </c>
       <c r="F118" t="n">
-        <v>266.2855</v>
+        <v>13724.3137</v>
       </c>
       <c r="G118" t="n">
-        <v>160.4833333333333</v>
+        <v>160.5</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>161</v>
+      </c>
+      <c r="C119" t="n">
         <v>160</v>
       </c>
-      <c r="C119" t="n">
-        <v>159</v>
-      </c>
       <c r="D119" t="n">
+        <v>161</v>
+      </c>
+      <c r="E119" t="n">
         <v>160</v>
       </c>
-      <c r="E119" t="n">
-        <v>159</v>
-      </c>
       <c r="F119" t="n">
-        <v>274.3011</v>
+        <v>266.2855</v>
       </c>
       <c r="G119" t="n">
-        <v>160.45</v>
+        <v>160.4833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C120" t="n">
+        <v>159</v>
+      </c>
+      <c r="D120" t="n">
         <v>160</v>
       </c>
-      <c r="D120" t="n">
-        <v>161</v>
-      </c>
       <c r="E120" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F120" t="n">
-        <v>1790.8987</v>
+        <v>274.3011</v>
       </c>
       <c r="G120" t="n">
-        <v>160.4</v>
+        <v>160.45</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C121" t="n">
         <v>160</v>
       </c>
       <c r="D121" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E121" t="n">
         <v>160</v>
       </c>
       <c r="F121" t="n">
-        <v>4277.7402</v>
+        <v>1790.8987</v>
       </c>
       <c r="G121" t="n">
-        <v>160.3666666666667</v>
+        <v>160.4</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,21 +3896,24 @@
         <v>160</v>
       </c>
       <c r="C122" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D122" t="n">
         <v>160</v>
       </c>
       <c r="E122" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F122" t="n">
-        <v>12644.2061</v>
+        <v>4277.7402</v>
       </c>
       <c r="G122" t="n">
-        <v>160.3</v>
+        <v>160.3666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>160</v>
       </c>
       <c r="C123" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D123" t="n">
         <v>160</v>
       </c>
       <c r="E123" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F123" t="n">
-        <v>32.4812</v>
+        <v>12644.2061</v>
       </c>
       <c r="G123" t="n">
-        <v>160.2666666666667</v>
+        <v>160.3</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>160</v>
       </c>
       <c r="F124" t="n">
-        <v>13.95</v>
+        <v>32.4812</v>
       </c>
       <c r="G124" t="n">
-        <v>160.2333333333333</v>
+        <v>160.2666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D125" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E125" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F125" t="n">
-        <v>11784.7259</v>
+        <v>13.95</v>
       </c>
       <c r="G125" t="n">
-        <v>160.1833333333333</v>
+        <v>160.2333333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,21 +4012,24 @@
         <v>159</v>
       </c>
       <c r="C126" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D126" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E126" t="n">
         <v>158</v>
       </c>
       <c r="F126" t="n">
-        <v>10417.9096</v>
+        <v>11784.7259</v>
       </c>
       <c r="G126" t="n">
-        <v>160.1166666666667</v>
+        <v>160.1833333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C127" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D127" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F127" t="n">
-        <v>22751.9941</v>
+        <v>10417.9096</v>
       </c>
       <c r="G127" t="n">
-        <v>160.05</v>
+        <v>160.1166666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C128" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D128" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E128" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F128" t="n">
-        <v>501</v>
+        <v>22751.9941</v>
       </c>
       <c r="G128" t="n">
-        <v>159.9666666666667</v>
+        <v>160.05</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C129" t="n">
         <v>158</v>
       </c>
       <c r="D129" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E129" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F129" t="n">
-        <v>3825.0585</v>
+        <v>501</v>
       </c>
       <c r="G129" t="n">
-        <v>159.9</v>
+        <v>159.9666666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3745,15 +4134,18 @@
         <v>158</v>
       </c>
       <c r="E130" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F130" t="n">
-        <v>15515</v>
+        <v>3825.0585</v>
       </c>
       <c r="G130" t="n">
-        <v>159.8333333333333</v>
+        <v>159.9</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>158</v>
       </c>
       <c r="C131" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D131" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E131" t="n">
         <v>158</v>
       </c>
       <c r="F131" t="n">
-        <v>27629.0326</v>
+        <v>15515</v>
       </c>
       <c r="G131" t="n">
-        <v>159.7833333333333</v>
+        <v>159.8333333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>158</v>
+      </c>
+      <c r="C132" t="n">
         <v>159</v>
       </c>
-      <c r="C132" t="n">
-        <v>158</v>
-      </c>
       <c r="D132" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E132" t="n">
         <v>158</v>
       </c>
       <c r="F132" t="n">
-        <v>101</v>
+        <v>27629.0326</v>
       </c>
       <c r="G132" t="n">
-        <v>159.7166666666667</v>
+        <v>159.7833333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>158</v>
       </c>
       <c r="F133" t="n">
-        <v>6886.899371069182</v>
+        <v>101</v>
       </c>
       <c r="G133" t="n">
-        <v>159.6666666666667</v>
+        <v>159.7166666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C134" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D134" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E134" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F134" t="n">
-        <v>156.5315</v>
+        <v>6886.899371069182</v>
       </c>
       <c r="G134" t="n">
-        <v>159.5666666666667</v>
+        <v>159.6666666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C135" t="n">
         <v>157</v>
       </c>
       <c r="D135" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E135" t="n">
         <v>157</v>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>156.5315</v>
       </c>
       <c r="G135" t="n">
-        <v>159.4666666666667</v>
+        <v>159.5666666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C136" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D136" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E136" t="n">
         <v>157</v>
       </c>
       <c r="F136" t="n">
-        <v>1502.861144654088</v>
+        <v>200</v>
       </c>
       <c r="G136" t="n">
-        <v>159.3833333333333</v>
+        <v>159.4666666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>158</v>
       </c>
       <c r="C137" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D137" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E137" t="n">
         <v>157</v>
       </c>
       <c r="F137" t="n">
-        <v>4157.262</v>
+        <v>1502.861144654088</v>
       </c>
       <c r="G137" t="n">
-        <v>159.2833333333333</v>
+        <v>159.3833333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>158</v>
+      </c>
+      <c r="C138" t="n">
         <v>157</v>
       </c>
-      <c r="C138" t="n">
-        <v>158</v>
-      </c>
       <c r="D138" t="n">
         <v>158</v>
       </c>
       <c r="E138" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F138" t="n">
-        <v>50706.8142</v>
+        <v>4157.262</v>
       </c>
       <c r="G138" t="n">
-        <v>159.2</v>
+        <v>159.2833333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C139" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D139" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E139" t="n">
         <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>18462.2754</v>
+        <v>50706.8142</v>
       </c>
       <c r="G139" t="n">
-        <v>159.1166666666667</v>
+        <v>159.2</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>156</v>
       </c>
       <c r="F140" t="n">
-        <v>74293.3181</v>
+        <v>18462.2754</v>
       </c>
       <c r="G140" t="n">
-        <v>159.0166666666667</v>
+        <v>159.1166666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4025,21 +4447,24 @@
         <v>156</v>
       </c>
       <c r="C141" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D141" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E141" t="n">
         <v>156</v>
       </c>
       <c r="F141" t="n">
-        <v>13429.323</v>
+        <v>74293.3181</v>
       </c>
       <c r="G141" t="n">
-        <v>158.95</v>
+        <v>159.0166666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C142" t="n">
         <v>157</v>
       </c>
       <c r="D142" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E142" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>13429.323</v>
       </c>
       <c r="G142" t="n">
-        <v>158.8833333333333</v>
+        <v>158.95</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C143" t="n">
         <v>157</v>
       </c>
       <c r="D143" t="n">
+        <v>158</v>
+      </c>
+      <c r="E143" t="n">
         <v>157</v>
       </c>
-      <c r="E143" t="n">
-        <v>156</v>
-      </c>
       <c r="F143" t="n">
-        <v>3744.5205</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>158.8</v>
+        <v>158.8833333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144" t="n">
         <v>157</v>
       </c>
       <c r="D144" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>3744.5205</v>
       </c>
       <c r="G144" t="n">
-        <v>158.7166666666667</v>
+        <v>158.8</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>157</v>
       </c>
       <c r="F145" t="n">
-        <v>9732.7078</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>158.6333333333333</v>
+        <v>158.7166666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>157</v>
       </c>
       <c r="F146" t="n">
-        <v>1140.0882</v>
+        <v>9732.7078</v>
       </c>
       <c r="G146" t="n">
-        <v>158.55</v>
+        <v>158.6333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C147" t="n">
         <v>157</v>
       </c>
       <c r="D147" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E147" t="n">
         <v>157</v>
       </c>
       <c r="F147" t="n">
-        <v>1020.264</v>
+        <v>1140.0882</v>
       </c>
       <c r="G147" t="n">
-        <v>158.4666666666667</v>
+        <v>158.55</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>1020.264</v>
       </c>
       <c r="G148" t="n">
-        <v>158.4166666666667</v>
+        <v>158.4666666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>158.3666666666667</v>
+        <v>158.4166666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C150" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D150" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E150" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>158.35</v>
+        <v>158.3666666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,7 +4734,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C151" t="n">
         <v>159</v>
@@ -4291,15 +4743,18 @@
         <v>159</v>
       </c>
       <c r="E151" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F151" t="n">
-        <v>399</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>158.3166666666667</v>
+        <v>158.35</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4311,21 +4766,24 @@
         <v>158</v>
       </c>
       <c r="C152" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D152" t="n">
         <v>159</v>
       </c>
       <c r="E152" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F152" t="n">
-        <v>22748.0916</v>
+        <v>399</v>
       </c>
       <c r="G152" t="n">
-        <v>158.2833333333333</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,16 +4795,16 @@
         <v>158</v>
       </c>
       <c r="C153" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D153" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E153" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>22748.0916</v>
       </c>
       <c r="G153" t="n">
         <v>158.2833333333333</v>
@@ -4354,30 +4812,36 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F154" t="n">
-        <v>1147.4843</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>158.25</v>
+        <v>158.2833333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>1147.4843</v>
       </c>
       <c r="G155" t="n">
-        <v>158.2333333333333</v>
+        <v>158.25</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F156" t="n">
-        <v>171.1862</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>158.2166666666667</v>
+        <v>158.2333333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" t="n">
         <v>157</v>
       </c>
       <c r="D157" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E157" t="n">
         <v>157</v>
       </c>
       <c r="F157" t="n">
-        <v>796</v>
+        <v>171.1862</v>
       </c>
       <c r="G157" t="n">
-        <v>158.2</v>
+        <v>158.2166666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>157</v>
       </c>
       <c r="F158" t="n">
-        <v>246.8949</v>
+        <v>796</v>
       </c>
       <c r="G158" t="n">
         <v>158.2</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" t="n">
         <v>157</v>
       </c>
       <c r="D159" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E159" t="n">
         <v>157</v>
       </c>
       <c r="F159" t="n">
-        <v>200.9537</v>
+        <v>246.8949</v>
       </c>
       <c r="G159" t="n">
-        <v>158.1833333333333</v>
+        <v>158.2</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F160" t="n">
-        <v>2911.4751</v>
+        <v>200.9537</v>
       </c>
       <c r="G160" t="n">
-        <v>158.2</v>
+        <v>158.1833333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>158</v>
       </c>
       <c r="F161" t="n">
-        <v>385.918</v>
+        <v>2911.4751</v>
       </c>
       <c r="G161" t="n">
-        <v>158.1666666666667</v>
+        <v>158.2</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>158</v>
       </c>
       <c r="F162" t="n">
-        <v>12499.9999</v>
+        <v>385.918</v>
       </c>
       <c r="G162" t="n">
         <v>158.1666666666667</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F163" t="n">
-        <v>4179.8471</v>
+        <v>12499.9999</v>
       </c>
       <c r="G163" t="n">
         <v>158.1666666666667</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C164" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D164" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E164" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F164" t="n">
-        <v>909.905</v>
+        <v>4179.8471</v>
       </c>
       <c r="G164" t="n">
-        <v>158.1333333333333</v>
+        <v>158.1666666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4655,15 +5149,18 @@
         <v>158</v>
       </c>
       <c r="E165" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F165" t="n">
-        <v>398</v>
+        <v>909.905</v>
       </c>
       <c r="G165" t="n">
         <v>158.1333333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>158</v>
       </c>
       <c r="F166" t="n">
-        <v>709.405</v>
+        <v>398</v>
       </c>
       <c r="G166" t="n">
-        <v>158.15</v>
+        <v>158.1333333333333</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>158</v>
       </c>
       <c r="F167" t="n">
-        <v>2824.1265</v>
+        <v>709.405</v>
       </c>
       <c r="G167" t="n">
-        <v>158.1333333333333</v>
+        <v>158.15</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C168" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D168" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E168" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>2824.1265</v>
       </c>
       <c r="G168" t="n">
-        <v>158.1</v>
+        <v>158.1333333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>159</v>
+      </c>
+      <c r="C169" t="n">
         <v>157</v>
       </c>
-      <c r="C169" t="n">
-        <v>158</v>
-      </c>
       <c r="D169" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E169" t="n">
         <v>157</v>
       </c>
       <c r="F169" t="n">
-        <v>13.8527</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
         <v>158.1</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>157</v>
       </c>
       <c r="C170" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E170" t="n">
         <v>157</v>
       </c>
       <c r="F170" t="n">
-        <v>78.631</v>
+        <v>13.8527</v>
       </c>
       <c r="G170" t="n">
         <v>158.1</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C171" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D171" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E171" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F171" t="n">
-        <v>1371.7151</v>
+        <v>78.631</v>
       </c>
       <c r="G171" t="n">
-        <v>158.0833333333333</v>
+        <v>158.1</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>1371.7151</v>
       </c>
       <c r="G172" t="n">
-        <v>158.0666666666667</v>
+        <v>158.0833333333333</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4857,21 +5375,24 @@
         <v>159</v>
       </c>
       <c r="C173" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D173" t="n">
         <v>159</v>
       </c>
       <c r="E173" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F173" t="n">
-        <v>13598.1318</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>158.0666666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C174" t="n">
         <v>158</v>
       </c>
       <c r="D174" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E174" t="n">
         <v>158</v>
       </c>
       <c r="F174" t="n">
-        <v>306.8361</v>
+        <v>13598.1318</v>
       </c>
       <c r="G174" t="n">
-        <v>158.0333333333333</v>
+        <v>158.0666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,21 +5433,24 @@
         <v>158</v>
       </c>
       <c r="C175" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D175" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E175" t="n">
         <v>158</v>
       </c>
       <c r="F175" t="n">
-        <v>31678.5002</v>
+        <v>306.8361</v>
       </c>
       <c r="G175" t="n">
-        <v>158.05</v>
+        <v>158.0333333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C176" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D176" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E176" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F176" t="n">
-        <v>3411.1643</v>
+        <v>31678.5002</v>
       </c>
       <c r="G176" t="n">
-        <v>158.0166666666667</v>
+        <v>158.05</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +5488,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C177" t="n">
         <v>158</v>
@@ -4967,15 +5497,18 @@
         <v>158</v>
       </c>
       <c r="E177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F177" t="n">
-        <v>838.3075</v>
+        <v>3411.1643</v>
       </c>
       <c r="G177" t="n">
-        <v>157.9833333333333</v>
+        <v>158.0166666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>158</v>
       </c>
       <c r="F178" t="n">
-        <v>370.948</v>
+        <v>838.3075</v>
       </c>
       <c r="G178" t="n">
-        <v>157.95</v>
+        <v>157.9833333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C179" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D179" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E179" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F179" t="n">
-        <v>7471.2691</v>
+        <v>370.948</v>
       </c>
       <c r="G179" t="n">
-        <v>157.9</v>
+        <v>157.95</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,10 +5575,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>157</v>
+      </c>
+      <c r="C180" t="n">
         <v>156</v>
-      </c>
-      <c r="C180" t="n">
-        <v>157</v>
       </c>
       <c r="D180" t="n">
         <v>157</v>
@@ -5048,12 +5587,15 @@
         <v>156</v>
       </c>
       <c r="F180" t="n">
-        <v>8788.7192</v>
+        <v>7471.2691</v>
       </c>
       <c r="G180" t="n">
-        <v>157.85</v>
+        <v>157.9</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5065,21 +5607,24 @@
         <v>156</v>
       </c>
       <c r="C181" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D181" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E181" t="n">
         <v>156</v>
       </c>
       <c r="F181" t="n">
-        <v>5749.9813</v>
+        <v>8788.7192</v>
       </c>
       <c r="G181" t="n">
-        <v>157.7833333333333</v>
+        <v>157.85</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5094,18 +5639,21 @@
         <v>156</v>
       </c>
       <c r="D182" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E182" t="n">
         <v>156</v>
       </c>
       <c r="F182" t="n">
-        <v>1267.0452</v>
+        <v>5749.9813</v>
       </c>
       <c r="G182" t="n">
-        <v>157.7333333333333</v>
+        <v>157.7833333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C183" t="n">
         <v>156</v>
       </c>
       <c r="D183" t="n">
+        <v>157</v>
+      </c>
+      <c r="E183" t="n">
         <v>156</v>
       </c>
-      <c r="E183" t="n">
-        <v>155</v>
-      </c>
       <c r="F183" t="n">
-        <v>4798.4787</v>
+        <v>1267.0452</v>
       </c>
       <c r="G183" t="n">
-        <v>157.6666666666667</v>
+        <v>157.7333333333333</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,10 +5691,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>155</v>
+      </c>
+      <c r="C184" t="n">
         <v>156</v>
-      </c>
-      <c r="C184" t="n">
-        <v>155</v>
       </c>
       <c r="D184" t="n">
         <v>156</v>
@@ -5152,12 +5703,15 @@
         <v>155</v>
       </c>
       <c r="F184" t="n">
-        <v>4468.7307</v>
+        <v>4798.4787</v>
       </c>
       <c r="G184" t="n">
-        <v>157.5833333333333</v>
+        <v>157.6666666666667</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C185" t="n">
         <v>155</v>
       </c>
       <c r="D185" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E185" t="n">
         <v>155</v>
       </c>
       <c r="F185" t="n">
-        <v>6767.4042</v>
+        <v>4468.7307</v>
       </c>
       <c r="G185" t="n">
-        <v>157.5166666666667</v>
+        <v>157.5833333333333</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5201,15 +5758,18 @@
         <v>155</v>
       </c>
       <c r="E186" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F186" t="n">
-        <v>51213.3164</v>
+        <v>6767.4042</v>
       </c>
       <c r="G186" t="n">
-        <v>157.4666666666667</v>
+        <v>157.5166666666667</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C187" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D187" t="n">
         <v>155</v>
       </c>
       <c r="E187" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F187" t="n">
-        <v>16059.1812</v>
+        <v>51213.3164</v>
       </c>
       <c r="G187" t="n">
-        <v>157.4166666666667</v>
+        <v>157.4666666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5250,18 +5813,21 @@
         <v>154</v>
       </c>
       <c r="D188" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E188" t="n">
         <v>153</v>
       </c>
       <c r="F188" t="n">
-        <v>16022.3355</v>
+        <v>16059.1812</v>
       </c>
       <c r="G188" t="n">
-        <v>157.35</v>
+        <v>157.4166666666667</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C189" t="n">
         <v>154</v>
       </c>
       <c r="D189" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E189" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F189" t="n">
-        <v>1557.258</v>
+        <v>16022.3355</v>
       </c>
       <c r="G189" t="n">
-        <v>157.2833333333333</v>
+        <v>157.35</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>157</v>
+      </c>
+      <c r="C190" t="n">
         <v>154</v>
       </c>
-      <c r="C190" t="n">
-        <v>155</v>
-      </c>
       <c r="D190" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E190" t="n">
         <v>154</v>
       </c>
       <c r="F190" t="n">
-        <v>3355.1886</v>
+        <v>1557.258</v>
       </c>
       <c r="G190" t="n">
-        <v>157.2333333333333</v>
+        <v>157.2833333333333</v>
       </c>
       <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C191" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D191" t="n">
         <v>156</v>
       </c>
       <c r="E191" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F191" t="n">
-        <v>375</v>
+        <v>3355.1886</v>
       </c>
       <c r="G191" t="n">
-        <v>157.1833333333333</v>
+        <v>157.2333333333333</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C192" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D192" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E192" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F192" t="n">
-        <v>4660.1852</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
-        <v>157.1166666666667</v>
+        <v>157.1833333333333</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>154</v>
       </c>
       <c r="C193" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D193" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E193" t="n">
         <v>154</v>
       </c>
       <c r="F193" t="n">
-        <v>2983.1986</v>
+        <v>4660.1852</v>
       </c>
       <c r="G193" t="n">
-        <v>157.0666666666667</v>
+        <v>157.1166666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>154</v>
       </c>
       <c r="F194" t="n">
-        <v>695.931</v>
+        <v>2983.1986</v>
       </c>
       <c r="G194" t="n">
-        <v>157.0333333333333</v>
+        <v>157.0666666666667</v>
       </c>
       <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5435,15 +6019,18 @@
         <v>155</v>
       </c>
       <c r="E195" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F195" t="n">
-        <v>6619.6859</v>
+        <v>695.931</v>
       </c>
       <c r="G195" t="n">
-        <v>157</v>
+        <v>157.0333333333333</v>
       </c>
       <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5461,15 +6048,18 @@
         <v>155</v>
       </c>
       <c r="E196" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F196" t="n">
-        <v>583</v>
+        <v>6619.6859</v>
       </c>
       <c r="G196" t="n">
-        <v>156.95</v>
+        <v>157</v>
       </c>
       <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C197" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D197" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E197" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F197" t="n">
+        <v>583</v>
+      </c>
+      <c r="G197" t="n">
+        <v>156.95</v>
+      </c>
+      <c r="H197" t="n">
         <v>1</v>
       </c>
-      <c r="G197" t="n">
-        <v>156.9333333333333</v>
-      </c>
-      <c r="H197" t="n">
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F198" t="n">
-        <v>115.3647</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>156.8666666666667</v>
+        <v>156.9333333333333</v>
       </c>
       <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F199" t="n">
-        <v>19.1032</v>
+        <v>115.3647</v>
       </c>
       <c r="G199" t="n">
-        <v>156.85</v>
+        <v>156.8666666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5568,12 +6167,15 @@
         <v>155</v>
       </c>
       <c r="F200" t="n">
+        <v>19.1032</v>
+      </c>
+      <c r="G200" t="n">
+        <v>156.85</v>
+      </c>
+      <c r="H200" t="n">
         <v>1</v>
       </c>
-      <c r="G200" t="n">
-        <v>156.8333333333333</v>
-      </c>
-      <c r="H200" t="n">
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>155</v>
       </c>
       <c r="F201" t="n">
-        <v>12519.9999</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>156.8</v>
+        <v>156.8333333333333</v>
       </c>
       <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,12 +6225,15 @@
         <v>155</v>
       </c>
       <c r="F202" t="n">
-        <v>15</v>
+        <v>12519.9999</v>
       </c>
       <c r="G202" t="n">
-        <v>156.7666666666667</v>
+        <v>156.8</v>
       </c>
       <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5640,18 +6248,21 @@
         <v>155</v>
       </c>
       <c r="D203" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E203" t="n">
         <v>155</v>
       </c>
       <c r="F203" t="n">
-        <v>478.7599</v>
+        <v>15</v>
       </c>
       <c r="G203" t="n">
-        <v>156.7333333333333</v>
+        <v>156.7666666666667</v>
       </c>
       <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5666,18 +6277,21 @@
         <v>155</v>
       </c>
       <c r="D204" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E204" t="n">
         <v>155</v>
       </c>
       <c r="F204" t="n">
-        <v>223.9753</v>
+        <v>478.7599</v>
       </c>
       <c r="G204" t="n">
-        <v>156.7</v>
+        <v>156.7333333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F205" t="n">
-        <v>229</v>
+        <v>223.9753</v>
       </c>
       <c r="G205" t="n">
-        <v>156.6833333333333</v>
+        <v>156.7</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>156</v>
       </c>
       <c r="C206" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D206" t="n">
         <v>156</v>
       </c>
       <c r="E206" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F206" t="n">
-        <v>1504.738</v>
+        <v>229</v>
       </c>
       <c r="G206" t="n">
-        <v>156.65</v>
+        <v>156.6833333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,21 +6361,24 @@
         <v>156</v>
       </c>
       <c r="C207" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D207" t="n">
         <v>156</v>
       </c>
       <c r="E207" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F207" t="n">
-        <v>91.3978</v>
+        <v>1504.738</v>
       </c>
       <c r="G207" t="n">
-        <v>156.6333333333333</v>
+        <v>156.65</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C208" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D208" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E208" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F208" t="n">
-        <v>8554.9126</v>
+        <v>91.3978</v>
       </c>
       <c r="G208" t="n">
-        <v>156.55</v>
+        <v>156.6333333333333</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,21 +6419,24 @@
         <v>155</v>
       </c>
       <c r="C209" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D209" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E209" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F209" t="n">
-        <v>1206.769</v>
+        <v>8554.9126</v>
       </c>
       <c r="G209" t="n">
-        <v>156.5166666666667</v>
+        <v>156.55</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5819,21 +6448,24 @@
         <v>155</v>
       </c>
       <c r="C210" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D210" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E210" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F210" t="n">
-        <v>1967</v>
+        <v>1206.769</v>
       </c>
       <c r="G210" t="n">
-        <v>156.45</v>
+        <v>156.5166666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C211" t="n">
         <v>155</v>
       </c>
       <c r="D211" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E211" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F211" t="n">
-        <v>1167.1662</v>
+        <v>1967</v>
       </c>
       <c r="G211" t="n">
-        <v>156.3833333333333</v>
+        <v>156.45</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C212" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D212" t="n">
         <v>156</v>
       </c>
       <c r="E212" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F212" t="n">
-        <v>20677.9331</v>
+        <v>1167.1662</v>
       </c>
       <c r="G212" t="n">
-        <v>156.3666666666667</v>
+        <v>156.3833333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5903,15 +6541,18 @@
         <v>156</v>
       </c>
       <c r="E213" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F213" t="n">
-        <v>399</v>
+        <v>20677.9331</v>
       </c>
       <c r="G213" t="n">
-        <v>156.3333333333333</v>
+        <v>156.3666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>155</v>
       </c>
       <c r="C214" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D214" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E214" t="n">
         <v>155</v>
       </c>
       <c r="F214" t="n">
-        <v>1729.3891</v>
+        <v>399</v>
       </c>
       <c r="G214" t="n">
-        <v>156.3</v>
+        <v>156.3333333333333</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>155</v>
       </c>
       <c r="F215" t="n">
-        <v>797.4382000000001</v>
+        <v>1729.3891</v>
       </c>
       <c r="G215" t="n">
-        <v>156.25</v>
+        <v>156.3</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,7 +6619,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C216" t="n">
         <v>155</v>
@@ -5981,15 +6628,18 @@
         <v>155</v>
       </c>
       <c r="E216" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F216" t="n">
-        <v>19589.8697</v>
+        <v>797.4382000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>156.2166666666667</v>
+        <v>156.25</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6007,15 +6657,18 @@
         <v>155</v>
       </c>
       <c r="E217" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F217" t="n">
-        <v>8872.5344</v>
+        <v>19589.8697</v>
       </c>
       <c r="G217" t="n">
-        <v>156.1833333333333</v>
+        <v>156.2166666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6027,21 +6680,24 @@
         <v>154</v>
       </c>
       <c r="C218" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D218" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E218" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F218" t="n">
-        <v>947.1328</v>
+        <v>8872.5344</v>
       </c>
       <c r="G218" t="n">
-        <v>156.1333333333333</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6062,12 +6718,15 @@
         <v>154</v>
       </c>
       <c r="F219" t="n">
-        <v>106.671</v>
+        <v>947.1328</v>
       </c>
       <c r="G219" t="n">
-        <v>156.0833333333333</v>
+        <v>156.1333333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C220" t="n">
         <v>154</v>
       </c>
       <c r="D220" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E220" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F220" t="n">
-        <v>27265.504</v>
+        <v>106.671</v>
       </c>
       <c r="G220" t="n">
-        <v>156.0166666666667</v>
+        <v>156.0833333333333</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C221" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D221" t="n">
         <v>155</v>
       </c>
       <c r="E221" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>27265.504</v>
       </c>
       <c r="G221" t="n">
-        <v>155.9666666666667</v>
+        <v>156.0166666666667</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F222" t="n">
-        <v>1799.5389</v>
+        <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>155.9</v>
+        <v>155.9666666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6822,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C223" t="n">
         <v>154</v>
@@ -6163,15 +6831,18 @@
         <v>154</v>
       </c>
       <c r="E223" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F223" t="n">
-        <v>1929.5543</v>
+        <v>1799.5389</v>
       </c>
       <c r="G223" t="n">
-        <v>155.8166666666667</v>
+        <v>155.9</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,10 +6851,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>153</v>
+      </c>
+      <c r="C224" t="n">
         <v>154</v>
-      </c>
-      <c r="C224" t="n">
-        <v>153</v>
       </c>
       <c r="D224" t="n">
         <v>154</v>
@@ -6192,12 +6863,15 @@
         <v>153</v>
       </c>
       <c r="F224" t="n">
-        <v>3151.0636</v>
+        <v>1929.5543</v>
       </c>
       <c r="G224" t="n">
-        <v>155.7333333333333</v>
+        <v>155.8166666666667</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>153</v>
       </c>
       <c r="F225" t="n">
-        <v>68.4622</v>
+        <v>3151.0636</v>
       </c>
       <c r="G225" t="n">
-        <v>155.65</v>
+        <v>155.7333333333333</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C226" t="n">
         <v>153</v>
       </c>
       <c r="D226" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E226" t="n">
         <v>153</v>
       </c>
       <c r="F226" t="n">
-        <v>3065.6379</v>
+        <v>68.4622</v>
       </c>
       <c r="G226" t="n">
-        <v>155.5666666666667</v>
+        <v>155.65</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,12 +6950,15 @@
         <v>153</v>
       </c>
       <c r="F227" t="n">
-        <v>14665.8011</v>
+        <v>3065.6379</v>
       </c>
       <c r="G227" t="n">
-        <v>155.4833333333333</v>
+        <v>155.5666666666667</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C228" t="n">
         <v>153</v>
       </c>
       <c r="D228" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E228" t="n">
         <v>153</v>
       </c>
       <c r="F228" t="n">
-        <v>2090.3137</v>
+        <v>14665.8011</v>
       </c>
       <c r="G228" t="n">
-        <v>155.4166666666667</v>
+        <v>155.4833333333333</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C229" t="n">
         <v>153</v>
       </c>
       <c r="D229" t="n">
+        <v>154</v>
+      </c>
+      <c r="E229" t="n">
         <v>153</v>
       </c>
-      <c r="E229" t="n">
-        <v>148</v>
-      </c>
       <c r="F229" t="n">
-        <v>138132.011</v>
+        <v>2090.3137</v>
       </c>
       <c r="G229" t="n">
-        <v>155.3333333333333</v>
+        <v>155.4166666666667</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,7 +7025,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C230" t="n">
         <v>153</v>
@@ -6345,15 +7034,18 @@
         <v>153</v>
       </c>
       <c r="E230" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F230" t="n">
-        <v>16117.5457</v>
+        <v>138132.011</v>
       </c>
       <c r="G230" t="n">
-        <v>155.2333333333333</v>
+        <v>155.3333333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6365,21 +7057,24 @@
         <v>152</v>
       </c>
       <c r="C231" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D231" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E231" t="n">
         <v>152</v>
       </c>
       <c r="F231" t="n">
-        <v>15123.208</v>
+        <v>16117.5457</v>
       </c>
       <c r="G231" t="n">
-        <v>155.1666666666667</v>
+        <v>155.2333333333333</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C232" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D232" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E232" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F232" t="n">
-        <v>439.8936</v>
+        <v>15123.208</v>
       </c>
       <c r="G232" t="n">
-        <v>155.05</v>
+        <v>155.1666666666667</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6417,21 +7115,24 @@
         <v>153</v>
       </c>
       <c r="C233" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D233" t="n">
         <v>153</v>
       </c>
       <c r="E233" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F233" t="n">
-        <v>38.5947</v>
+        <v>439.8936</v>
       </c>
       <c r="G233" t="n">
-        <v>154.9666666666667</v>
+        <v>155.05</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,21 +7144,24 @@
         <v>153</v>
       </c>
       <c r="C234" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D234" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E234" t="n">
         <v>153</v>
       </c>
       <c r="F234" t="n">
-        <v>23820</v>
+        <v>38.5947</v>
       </c>
       <c r="G234" t="n">
-        <v>154.9</v>
+        <v>154.9666666666667</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,7 +7170,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C235" t="n">
         <v>154</v>
@@ -6475,15 +7179,18 @@
         <v>154</v>
       </c>
       <c r="E235" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F235" t="n">
-        <v>328</v>
+        <v>23820</v>
       </c>
       <c r="G235" t="n">
-        <v>154.8166666666667</v>
+        <v>154.9</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,7 +7199,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C236" t="n">
         <v>154</v>
@@ -6501,15 +7208,18 @@
         <v>154</v>
       </c>
       <c r="E236" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F236" t="n">
-        <v>3750.242533766234</v>
+        <v>328</v>
       </c>
       <c r="G236" t="n">
-        <v>154.75</v>
+        <v>154.8166666666667</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6527,15 +7237,18 @@
         <v>154</v>
       </c>
       <c r="E237" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F237" t="n">
-        <v>130.211</v>
+        <v>3750.242533766234</v>
       </c>
       <c r="G237" t="n">
-        <v>154.6833333333333</v>
+        <v>154.75</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,7 +7257,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C238" t="n">
         <v>154</v>
@@ -6553,15 +7266,18 @@
         <v>154</v>
       </c>
       <c r="E238" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F238" t="n">
-        <v>100</v>
+        <v>130.211</v>
       </c>
       <c r="G238" t="n">
-        <v>154.6166666666667</v>
+        <v>154.6833333333333</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C239" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D239" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E239" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F239" t="n">
-        <v>18972.5467</v>
+        <v>100</v>
       </c>
       <c r="G239" t="n">
-        <v>154.5666666666667</v>
+        <v>154.6166666666667</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>152</v>
+      </c>
+      <c r="C240" t="n">
         <v>153</v>
       </c>
-      <c r="C240" t="n">
-        <v>154</v>
-      </c>
       <c r="D240" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E240" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F240" t="n">
-        <v>3136.6544</v>
+        <v>18972.5467</v>
       </c>
       <c r="G240" t="n">
-        <v>154.5166666666667</v>
+        <v>154.5666666666667</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C241" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D241" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E241" t="n">
         <v>152</v>
       </c>
       <c r="F241" t="n">
-        <v>2927.7154</v>
+        <v>3136.6544</v>
       </c>
       <c r="G241" t="n">
-        <v>154.45</v>
+        <v>154.5166666666667</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6660,12 +7385,15 @@
         <v>152</v>
       </c>
       <c r="F242" t="n">
-        <v>204.0257</v>
+        <v>2927.7154</v>
       </c>
       <c r="G242" t="n">
-        <v>154.3833333333333</v>
+        <v>154.45</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>152</v>
       </c>
       <c r="F243" t="n">
-        <v>2631.5789</v>
+        <v>204.0257</v>
       </c>
       <c r="G243" t="n">
-        <v>154.3166666666667</v>
+        <v>154.3833333333333</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +7431,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C244" t="n">
         <v>152</v>
@@ -6709,15 +7440,18 @@
         <v>152</v>
       </c>
       <c r="E244" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F244" t="n">
-        <v>10657.1052</v>
+        <v>2631.5789</v>
       </c>
       <c r="G244" t="n">
-        <v>154.2666666666667</v>
+        <v>154.3166666666667</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,7 +7460,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C245" t="n">
         <v>152</v>
@@ -6735,15 +7469,18 @@
         <v>152</v>
       </c>
       <c r="E245" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F245" t="n">
-        <v>500</v>
+        <v>10657.1052</v>
       </c>
       <c r="G245" t="n">
-        <v>154.2166666666667</v>
+        <v>154.2666666666667</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6761,15 +7498,18 @@
         <v>152</v>
       </c>
       <c r="E246" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F246" t="n">
-        <v>5173.2843</v>
+        <v>500</v>
       </c>
       <c r="G246" t="n">
-        <v>154.1666666666667</v>
+        <v>154.2166666666667</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6784,18 +7524,21 @@
         <v>152</v>
       </c>
       <c r="D247" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E247" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F247" t="n">
-        <v>2272.5668</v>
+        <v>5173.2843</v>
       </c>
       <c r="G247" t="n">
-        <v>154.1333333333333</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6810,18 +7553,21 @@
         <v>152</v>
       </c>
       <c r="D248" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E248" t="n">
         <v>152</v>
       </c>
       <c r="F248" t="n">
-        <v>500</v>
+        <v>2272.5668</v>
       </c>
       <c r="G248" t="n">
-        <v>154.1</v>
+        <v>154.1333333333333</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6842,12 +7588,15 @@
         <v>152</v>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G249" t="n">
-        <v>154.0666666666667</v>
+        <v>154.1</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,7 +7605,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C250" t="n">
         <v>152</v>
@@ -6865,15 +7614,18 @@
         <v>152</v>
       </c>
       <c r="E250" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F250" t="n">
-        <v>7314.5503</v>
+        <v>250</v>
       </c>
       <c r="G250" t="n">
-        <v>154.0166666666667</v>
+        <v>154.0666666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,21 +7637,24 @@
         <v>151</v>
       </c>
       <c r="C251" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D251" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E251" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F251" t="n">
-        <v>3249.9999</v>
+        <v>7314.5503</v>
       </c>
       <c r="G251" t="n">
-        <v>153.9333333333333</v>
+        <v>154.0166666666667</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6911,21 +7666,24 @@
         <v>151</v>
       </c>
       <c r="C252" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D252" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E252" t="n">
         <v>151</v>
       </c>
       <c r="F252" t="n">
-        <v>6508.3679</v>
+        <v>3249.9999</v>
       </c>
       <c r="G252" t="n">
-        <v>153.9</v>
+        <v>153.9333333333333</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C253" t="n">
+        <v>152</v>
+      </c>
+      <c r="D253" t="n">
+        <v>152</v>
+      </c>
+      <c r="E253" t="n">
         <v>151</v>
       </c>
-      <c r="D253" t="n">
-        <v>151</v>
-      </c>
-      <c r="E253" t="n">
-        <v>149</v>
-      </c>
       <c r="F253" t="n">
-        <v>62.3535</v>
+        <v>6508.3679</v>
       </c>
       <c r="G253" t="n">
-        <v>153.8333333333333</v>
+        <v>153.9</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,7 +7721,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C254" t="n">
         <v>151</v>
@@ -6969,15 +7730,18 @@
         <v>151</v>
       </c>
       <c r="E254" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F254" t="n">
-        <v>9.225099999999999</v>
+        <v>62.3535</v>
       </c>
       <c r="G254" t="n">
-        <v>153.7666666666667</v>
+        <v>153.8333333333333</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,7 +7750,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C255" t="n">
         <v>151</v>
@@ -6995,15 +7759,18 @@
         <v>151</v>
       </c>
       <c r="E255" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F255" t="n">
-        <v>2032.8978</v>
+        <v>9.225099999999999</v>
       </c>
       <c r="G255" t="n">
-        <v>153.7</v>
+        <v>153.7666666666667</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7015,21 +7782,24 @@
         <v>150</v>
       </c>
       <c r="C256" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D256" t="n">
         <v>151</v>
       </c>
       <c r="E256" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F256" t="n">
-        <v>9949.816999999999</v>
+        <v>2032.8978</v>
       </c>
       <c r="G256" t="n">
-        <v>153.6166666666667</v>
+        <v>153.7</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7041,21 +7811,24 @@
         <v>150</v>
       </c>
       <c r="C257" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D257" t="n">
         <v>151</v>
       </c>
       <c r="E257" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F257" t="n">
-        <v>714.2446</v>
+        <v>9949.816999999999</v>
       </c>
       <c r="G257" t="n">
-        <v>153.5333333333333</v>
+        <v>153.6166666666667</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7067,21 +7840,24 @@
         <v>150</v>
       </c>
       <c r="C258" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D258" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E258" t="n">
         <v>150</v>
       </c>
       <c r="F258" t="n">
-        <v>2520</v>
+        <v>714.2446</v>
       </c>
       <c r="G258" t="n">
-        <v>153.4666666666667</v>
+        <v>153.5333333333333</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7102,12 +7878,15 @@
         <v>150</v>
       </c>
       <c r="F259" t="n">
-        <v>1032.1595</v>
+        <v>2520</v>
       </c>
       <c r="G259" t="n">
-        <v>153.3833333333333</v>
+        <v>153.4666666666667</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,24 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>1032.1595</v>
       </c>
       <c r="G260" t="n">
-        <v>153.3166666666667</v>
+        <v>153.3833333333333</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C261" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D261" t="n">
         <v>151</v>
       </c>
       <c r="E261" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F261" t="n">
-        <v>2141.2983</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>153.2333333333333</v>
+        <v>153.3166666666667</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C262" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D262" t="n">
         <v>151</v>
       </c>
       <c r="E262" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F262" t="n">
-        <v>1360</v>
+        <v>2141.2983</v>
       </c>
       <c r="G262" t="n">
-        <v>153.1666666666667</v>
+        <v>153.2333333333333</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7206,12 +7994,15 @@
         <v>151</v>
       </c>
       <c r="F263" t="n">
-        <v>760</v>
+        <v>1360</v>
       </c>
       <c r="G263" t="n">
-        <v>153.1</v>
+        <v>153.1666666666667</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7232,12 +8023,15 @@
         <v>151</v>
       </c>
       <c r="F264" t="n">
-        <v>255.1876</v>
+        <v>760</v>
       </c>
       <c r="G264" t="n">
-        <v>153.0333333333333</v>
+        <v>153.1</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,12 +8052,15 @@
         <v>151</v>
       </c>
       <c r="F265" t="n">
-        <v>1216.207</v>
+        <v>255.1876</v>
       </c>
       <c r="G265" t="n">
-        <v>152.95</v>
+        <v>153.0333333333333</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,12 +8081,15 @@
         <v>151</v>
       </c>
       <c r="F266" t="n">
-        <v>6028.5757</v>
+        <v>1216.207</v>
       </c>
       <c r="G266" t="n">
-        <v>152.8833333333333</v>
+        <v>152.95</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7301,21 +8101,24 @@
         <v>151</v>
       </c>
       <c r="C267" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D267" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E267" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F267" t="n">
-        <v>16365.3492</v>
+        <v>6028.5757</v>
       </c>
       <c r="G267" t="n">
-        <v>152.8166666666667</v>
+        <v>152.8833333333333</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C268" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D268" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E268" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F268" t="n">
-        <v>86.92319999999999</v>
+        <v>16365.3492</v>
       </c>
       <c r="G268" t="n">
-        <v>152.7666666666667</v>
+        <v>152.8166666666667</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C269" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D269" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E269" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F269" t="n">
-        <v>86</v>
+        <v>86.92319999999999</v>
       </c>
       <c r="G269" t="n">
-        <v>152.7</v>
+        <v>152.7666666666667</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G270" t="n">
-        <v>152.6333333333333</v>
+        <v>152.7</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,24 +8214,27 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F271" t="n">
-        <v>2.6732</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>152.6</v>
+        <v>152.6333333333333</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7440,12 +8255,15 @@
         <v>153</v>
       </c>
       <c r="F272" t="n">
-        <v>2614.379</v>
+        <v>2.6732</v>
       </c>
       <c r="G272" t="n">
-        <v>152.55</v>
+        <v>152.6</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7460,18 +8278,21 @@
         <v>153</v>
       </c>
       <c r="D273" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E273" t="n">
         <v>153</v>
       </c>
       <c r="F273" t="n">
-        <v>1060.551472727273</v>
+        <v>2614.379</v>
       </c>
       <c r="G273" t="n">
-        <v>152.5</v>
+        <v>152.55</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7486,18 +8307,21 @@
         <v>153</v>
       </c>
       <c r="D274" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E274" t="n">
         <v>153</v>
       </c>
       <c r="F274" t="n">
-        <v>4937.1697</v>
+        <v>1060.551472727273</v>
       </c>
       <c r="G274" t="n">
-        <v>152.4666666666667</v>
+        <v>152.5</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,24 +8330,27 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C275" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D275" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E275" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F275" t="n">
-        <v>14032.7314</v>
+        <v>4937.1697</v>
       </c>
       <c r="G275" t="n">
         <v>152.4666666666667</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7544,12 +8371,15 @@
         <v>154</v>
       </c>
       <c r="F276" t="n">
-        <v>18195.991</v>
+        <v>14032.7314</v>
       </c>
       <c r="G276" t="n">
         <v>152.4666666666667</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,7 +8388,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C277" t="n">
         <v>155</v>
@@ -7567,15 +8397,18 @@
         <v>155</v>
       </c>
       <c r="E277" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F277" t="n">
-        <v>9320</v>
+        <v>18195.991</v>
       </c>
       <c r="G277" t="n">
         <v>152.4666666666667</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7596,12 +8429,15 @@
         <v>155</v>
       </c>
       <c r="F278" t="n">
-        <v>1580</v>
+        <v>9320</v>
       </c>
       <c r="G278" t="n">
-        <v>152.4833333333333</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7622,12 +8458,15 @@
         <v>155</v>
       </c>
       <c r="F279" t="n">
-        <v>2360</v>
+        <v>1580</v>
       </c>
       <c r="G279" t="n">
-        <v>152.5</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7648,12 +8487,15 @@
         <v>155</v>
       </c>
       <c r="F280" t="n">
-        <v>1871.2214</v>
+        <v>2360</v>
       </c>
       <c r="G280" t="n">
-        <v>152.5166666666667</v>
+        <v>152.5</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F281" t="n">
-        <v>1862.9204</v>
+        <v>1871.2214</v>
       </c>
       <c r="G281" t="n">
-        <v>152.4833333333333</v>
+        <v>152.5166666666667</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,12 +8545,15 @@
         <v>153</v>
       </c>
       <c r="F282" t="n">
-        <v>4094.8166</v>
+        <v>1862.9204</v>
       </c>
       <c r="G282" t="n">
-        <v>152.4666666666667</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7726,12 +8574,15 @@
         <v>153</v>
       </c>
       <c r="F283" t="n">
-        <v>1373.4443</v>
+        <v>4094.8166</v>
       </c>
       <c r="G283" t="n">
-        <v>152.45</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7752,12 +8603,15 @@
         <v>153</v>
       </c>
       <c r="F284" t="n">
-        <v>5702.8348</v>
+        <v>1373.4443</v>
       </c>
       <c r="G284" t="n">
         <v>152.45</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7778,12 +8632,15 @@
         <v>153</v>
       </c>
       <c r="F285" t="n">
-        <v>599.8039</v>
+        <v>5702.8348</v>
       </c>
       <c r="G285" t="n">
         <v>152.45</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7804,12 +8661,15 @@
         <v>153</v>
       </c>
       <c r="F286" t="n">
-        <v>1824.101</v>
+        <v>599.8039</v>
       </c>
       <c r="G286" t="n">
         <v>152.45</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7818,24 +8678,27 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F287" t="n">
-        <v>1</v>
+        <v>1824.101</v>
       </c>
       <c r="G287" t="n">
-        <v>152.4666666666667</v>
+        <v>152.45</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7856,12 +8719,15 @@
         <v>154</v>
       </c>
       <c r="F288" t="n">
-        <v>3152.3051</v>
+        <v>1</v>
       </c>
       <c r="G288" t="n">
-        <v>152.4833333333333</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7882,12 +8748,15 @@
         <v>154</v>
       </c>
       <c r="F289" t="n">
-        <v>400</v>
+        <v>3152.3051</v>
       </c>
       <c r="G289" t="n">
-        <v>152.5</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7896,24 +8765,27 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F290" t="n">
-        <v>10405.1961</v>
+        <v>400</v>
       </c>
       <c r="G290" t="n">
-        <v>152.4833333333333</v>
+        <v>152.5</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7934,12 +8806,15 @@
         <v>152</v>
       </c>
       <c r="F291" t="n">
-        <v>6010.1365</v>
+        <v>10405.1961</v>
       </c>
       <c r="G291" t="n">
-        <v>152.45</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7951,21 +8826,24 @@
         <v>152</v>
       </c>
       <c r="C292" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D292" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E292" t="n">
         <v>152</v>
       </c>
       <c r="F292" t="n">
-        <v>2004.3789</v>
+        <v>6010.1365</v>
       </c>
       <c r="G292" t="n">
-        <v>152.4833333333333</v>
+        <v>152.45</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7977,21 +8855,24 @@
         <v>152</v>
       </c>
       <c r="C293" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D293" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E293" t="n">
         <v>152</v>
       </c>
       <c r="F293" t="n">
-        <v>110.3731</v>
+        <v>2004.3789</v>
       </c>
       <c r="G293" t="n">
-        <v>152.4666666666667</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8000,24 +8881,27 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C294" t="n">
         <v>152</v>
       </c>
       <c r="D294" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E294" t="n">
         <v>152</v>
       </c>
       <c r="F294" t="n">
-        <v>3144.4243</v>
+        <v>110.3731</v>
       </c>
       <c r="G294" t="n">
-        <v>152.4333333333333</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8026,24 +8910,27 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C295" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D295" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E295" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F295" t="n">
-        <v>1</v>
+        <v>3144.4243</v>
       </c>
       <c r="G295" t="n">
         <v>152.4333333333333</v>
       </c>
       <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8052,24 +8939,27 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C296" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D296" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E296" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F296" t="n">
-        <v>502.4959</v>
+        <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>152.4166666666667</v>
+        <v>152.4333333333333</v>
       </c>
       <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8078,24 +8968,27 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C297" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D297" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E297" t="n">
         <v>152</v>
       </c>
       <c r="F297" t="n">
-        <v>1294.3672</v>
+        <v>502.4959</v>
       </c>
       <c r="G297" t="n">
-        <v>152.3833333333333</v>
+        <v>152.4166666666667</v>
       </c>
       <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8116,12 +9009,15 @@
         <v>152</v>
       </c>
       <c r="F298" t="n">
-        <v>12492.3682</v>
+        <v>1294.3672</v>
       </c>
       <c r="G298" t="n">
-        <v>152.35</v>
+        <v>152.3833333333333</v>
       </c>
       <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8130,24 +9026,27 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F299" t="n">
-        <v>6144.177</v>
+        <v>12492.3682</v>
       </c>
       <c r="G299" t="n">
-        <v>152.3166666666667</v>
+        <v>152.35</v>
       </c>
       <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8168,12 +9067,15 @@
         <v>151</v>
       </c>
       <c r="F300" t="n">
-        <v>1115.2179</v>
+        <v>6144.177</v>
       </c>
       <c r="G300" t="n">
-        <v>152.2666666666667</v>
+        <v>152.3166666666667</v>
       </c>
       <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8182,24 +9084,27 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F301" t="n">
-        <v>114.6593</v>
+        <v>1115.2179</v>
       </c>
       <c r="G301" t="n">
         <v>152.2666666666667</v>
       </c>
       <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8220,12 +9125,15 @@
         <v>152</v>
       </c>
       <c r="F302" t="n">
-        <v>340</v>
+        <v>114.6593</v>
       </c>
       <c r="G302" t="n">
         <v>152.2666666666667</v>
       </c>
       <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8234,24 +9142,27 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F303" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="G303" t="n">
-        <v>152.25</v>
+        <v>152.2666666666667</v>
       </c>
       <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8260,24 +9171,27 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F304" t="n">
-        <v>759.381</v>
+        <v>400</v>
       </c>
       <c r="G304" t="n">
         <v>152.25</v>
       </c>
       <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8286,24 +9200,27 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F305" t="n">
-        <v>335.7058</v>
+        <v>759.381</v>
       </c>
       <c r="G305" t="n">
-        <v>152.2333333333333</v>
+        <v>152.25</v>
       </c>
       <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8312,24 +9229,27 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F306" t="n">
-        <v>9639.4802</v>
+        <v>335.7058</v>
       </c>
       <c r="G306" t="n">
         <v>152.2333333333333</v>
       </c>
       <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8350,12 +9270,15 @@
         <v>152</v>
       </c>
       <c r="F307" t="n">
-        <v>215.8725</v>
+        <v>9639.4802</v>
       </c>
       <c r="G307" t="n">
         <v>152.2333333333333</v>
       </c>
       <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8376,12 +9299,15 @@
         <v>152</v>
       </c>
       <c r="F308" t="n">
-        <v>4696.412</v>
+        <v>215.8725</v>
       </c>
       <c r="G308" t="n">
         <v>152.2333333333333</v>
       </c>
       <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8402,12 +9328,15 @@
         <v>152</v>
       </c>
       <c r="F309" t="n">
-        <v>500</v>
+        <v>4696.412</v>
       </c>
       <c r="G309" t="n">
         <v>152.2333333333333</v>
       </c>
       <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8428,12 +9357,15 @@
         <v>152</v>
       </c>
       <c r="F310" t="n">
-        <v>673.0657</v>
+        <v>500</v>
       </c>
       <c r="G310" t="n">
         <v>152.2333333333333</v>
       </c>
       <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8442,24 +9374,27 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F311" t="n">
-        <v>4384.2993</v>
+        <v>673.0657</v>
       </c>
       <c r="G311" t="n">
         <v>152.2333333333333</v>
       </c>
       <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8468,24 +9403,27 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C312" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D312" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E312" t="n">
         <v>151</v>
       </c>
       <c r="F312" t="n">
-        <v>8609.6646</v>
+        <v>4384.2993</v>
       </c>
       <c r="G312" t="n">
         <v>152.2333333333333</v>
       </c>
       <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8506,12 +9444,15 @@
         <v>151</v>
       </c>
       <c r="F313" t="n">
-        <v>32399.7724</v>
+        <v>8609.6646</v>
       </c>
       <c r="G313" t="n">
-        <v>152.25</v>
+        <v>152.2333333333333</v>
       </c>
       <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8529,15 +9470,18 @@
         <v>152</v>
       </c>
       <c r="E314" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F314" t="n">
-        <v>2675.7466</v>
+        <v>32399.7724</v>
       </c>
       <c r="G314" t="n">
-        <v>152.2666666666667</v>
+        <v>152.25</v>
       </c>
       <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8558,532 +9502,15 @@
         <v>152</v>
       </c>
       <c r="F315" t="n">
-        <v>833.8212</v>
+        <v>2675.7466</v>
       </c>
       <c r="G315" t="n">
-        <v>152.2833333333333</v>
+        <v>152.2666666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>152</v>
-      </c>
-      <c r="C316" t="n">
-        <v>152</v>
-      </c>
-      <c r="D316" t="n">
-        <v>152</v>
-      </c>
-      <c r="E316" t="n">
-        <v>152</v>
-      </c>
-      <c r="F316" t="n">
-        <v>59.2542</v>
-      </c>
-      <c r="G316" t="n">
-        <v>152.3166666666667</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>152</v>
-      </c>
-      <c r="C317" t="n">
-        <v>152</v>
-      </c>
-      <c r="D317" t="n">
-        <v>152</v>
-      </c>
-      <c r="E317" t="n">
-        <v>152</v>
-      </c>
-      <c r="F317" t="n">
-        <v>2012.4312</v>
-      </c>
-      <c r="G317" t="n">
-        <v>152.3333333333333</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>152</v>
-      </c>
-      <c r="C318" t="n">
-        <v>152</v>
-      </c>
-      <c r="D318" t="n">
-        <v>152</v>
-      </c>
-      <c r="E318" t="n">
-        <v>152</v>
-      </c>
-      <c r="F318" t="n">
-        <v>7100</v>
-      </c>
-      <c r="G318" t="n">
-        <v>152.3666666666667</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>151</v>
-      </c>
-      <c r="C319" t="n">
-        <v>152</v>
-      </c>
-      <c r="D319" t="n">
-        <v>152</v>
-      </c>
-      <c r="E319" t="n">
-        <v>151</v>
-      </c>
-      <c r="F319" t="n">
-        <v>993.5326</v>
-      </c>
-      <c r="G319" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>152</v>
-      </c>
-      <c r="C320" t="n">
-        <v>152</v>
-      </c>
-      <c r="D320" t="n">
-        <v>152</v>
-      </c>
-      <c r="E320" t="n">
-        <v>152</v>
-      </c>
-      <c r="F320" t="n">
-        <v>202.298</v>
-      </c>
-      <c r="G320" t="n">
-        <v>152.4166666666667</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>152</v>
-      </c>
-      <c r="C321" t="n">
-        <v>152</v>
-      </c>
-      <c r="D321" t="n">
-        <v>152</v>
-      </c>
-      <c r="E321" t="n">
-        <v>152</v>
-      </c>
-      <c r="F321" t="n">
-        <v>4933.2419</v>
-      </c>
-      <c r="G321" t="n">
-        <v>152.45</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>152</v>
-      </c>
-      <c r="C322" t="n">
-        <v>153</v>
-      </c>
-      <c r="D322" t="n">
-        <v>153</v>
-      </c>
-      <c r="E322" t="n">
-        <v>152</v>
-      </c>
-      <c r="F322" t="n">
-        <v>2663.416</v>
-      </c>
-      <c r="G322" t="n">
-        <v>152.4833333333333</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>153</v>
-      </c>
-      <c r="C323" t="n">
-        <v>153</v>
-      </c>
-      <c r="D323" t="n">
-        <v>153</v>
-      </c>
-      <c r="E323" t="n">
-        <v>153</v>
-      </c>
-      <c r="F323" t="n">
-        <v>1040</v>
-      </c>
-      <c r="G323" t="n">
-        <v>152.5166666666667</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>153</v>
-      </c>
-      <c r="C324" t="n">
-        <v>153</v>
-      </c>
-      <c r="D324" t="n">
-        <v>153</v>
-      </c>
-      <c r="E324" t="n">
-        <v>153</v>
-      </c>
-      <c r="F324" t="n">
-        <v>4575.1633</v>
-      </c>
-      <c r="G324" t="n">
-        <v>152.55</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>152</v>
-      </c>
-      <c r="C325" t="n">
-        <v>152</v>
-      </c>
-      <c r="D325" t="n">
-        <v>152</v>
-      </c>
-      <c r="E325" t="n">
-        <v>152</v>
-      </c>
-      <c r="F325" t="n">
-        <v>3608.9334</v>
-      </c>
-      <c r="G325" t="n">
-        <v>152.5666666666667</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>152</v>
-      </c>
-      <c r="C326" t="n">
-        <v>154</v>
-      </c>
-      <c r="D326" t="n">
-        <v>154</v>
-      </c>
-      <c r="E326" t="n">
-        <v>152</v>
-      </c>
-      <c r="F326" t="n">
-        <v>500</v>
-      </c>
-      <c r="G326" t="n">
-        <v>152.6166666666667</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>154</v>
-      </c>
-      <c r="C327" t="n">
-        <v>154</v>
-      </c>
-      <c r="D327" t="n">
-        <v>154</v>
-      </c>
-      <c r="E327" t="n">
-        <v>154</v>
-      </c>
-      <c r="F327" t="n">
-        <v>88.9798</v>
-      </c>
-      <c r="G327" t="n">
-        <v>152.65</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>152</v>
-      </c>
-      <c r="C328" t="n">
-        <v>153</v>
-      </c>
-      <c r="D328" t="n">
-        <v>153</v>
-      </c>
-      <c r="E328" t="n">
-        <v>152</v>
-      </c>
-      <c r="F328" t="n">
-        <v>3326.5566</v>
-      </c>
-      <c r="G328" t="n">
-        <v>152.6833333333333</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>153</v>
-      </c>
-      <c r="C329" t="n">
-        <v>153</v>
-      </c>
-      <c r="D329" t="n">
-        <v>153</v>
-      </c>
-      <c r="E329" t="n">
-        <v>153</v>
-      </c>
-      <c r="F329" t="n">
-        <v>617</v>
-      </c>
-      <c r="G329" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>154</v>
-      </c>
-      <c r="C330" t="n">
-        <v>154</v>
-      </c>
-      <c r="D330" t="n">
-        <v>154</v>
-      </c>
-      <c r="E330" t="n">
-        <v>154</v>
-      </c>
-      <c r="F330" t="n">
-        <v>1948.0519</v>
-      </c>
-      <c r="G330" t="n">
-        <v>152.75</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>153</v>
-      </c>
-      <c r="C331" t="n">
-        <v>153</v>
-      </c>
-      <c r="D331" t="n">
-        <v>153</v>
-      </c>
-      <c r="E331" t="n">
-        <v>153</v>
-      </c>
-      <c r="F331" t="n">
-        <v>5719.2466</v>
-      </c>
-      <c r="G331" t="n">
-        <v>152.75</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>153</v>
-      </c>
-      <c r="C332" t="n">
-        <v>153</v>
-      </c>
-      <c r="D332" t="n">
-        <v>153</v>
-      </c>
-      <c r="E332" t="n">
-        <v>152</v>
-      </c>
-      <c r="F332" t="n">
-        <v>4299.3227</v>
-      </c>
-      <c r="G332" t="n">
-        <v>152.75</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>154</v>
-      </c>
-      <c r="C333" t="n">
-        <v>154</v>
-      </c>
-      <c r="D333" t="n">
-        <v>154</v>
-      </c>
-      <c r="E333" t="n">
-        <v>153</v>
-      </c>
-      <c r="F333" t="n">
-        <v>1478</v>
-      </c>
-      <c r="G333" t="n">
-        <v>152.7666666666667</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>153</v>
-      </c>
-      <c r="C334" t="n">
-        <v>154</v>
-      </c>
-      <c r="D334" t="n">
-        <v>154</v>
-      </c>
-      <c r="E334" t="n">
-        <v>153</v>
-      </c>
-      <c r="F334" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G334" t="n">
-        <v>152.7833333333333</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>154</v>
-      </c>
-      <c r="C335" t="n">
-        <v>154</v>
-      </c>
-      <c r="D335" t="n">
-        <v>154</v>
-      </c>
-      <c r="E335" t="n">
-        <v>154</v>
-      </c>
-      <c r="F335" t="n">
-        <v>2339.2746</v>
-      </c>
-      <c r="G335" t="n">
-        <v>152.7666666666667</v>
-      </c>
-      <c r="H335" t="n">
+      <c r="I315" t="n">
         <v>0</v>
       </c>
     </row>
